--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Douglas A J Bracewell</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3340</t>
+          <t>3340</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>22/10/2011</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3342</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3366</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3370</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3385</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/06/2013</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>23/08/2015</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3827</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3828</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1255,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1555,7 +1613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1577,7 +1635,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1614,7 +1672,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3340</t>
+          <t>3340</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1651,7 +1709,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3342</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1688,7 +1746,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3366</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1725,7 +1783,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3370</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1762,7 +1820,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3385</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1799,7 +1857,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1836,7 +1894,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1873,7 +1931,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3827</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1910,7 +1968,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3828</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1947,7 +2005,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1984,7 +2042,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2021,7 +2079,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2058,7 +2116,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2095,7 +2153,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2132,7 +2190,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2169,7 +2227,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2206,7 +2264,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2243,7 +2301,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2280,7 +2338,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2317,7 +2375,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2354,7 +2412,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2380,6 +2438,499 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>2/23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3370</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3385</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3503</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3827</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3828</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.46%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.17%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15.53%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2498,15 +2499,443 @@
           <t>3342</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3370</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3385</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3503</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3827</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3828</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.46%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.17%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15.53%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2514,27 +2943,14 @@
           <t>3366</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.23%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2546,13 +2962,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2562,13 +2971,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2576,27 +2978,14 @@
           <t>3429</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.08%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2606,15 +2995,14 @@
           <t>3503</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2624,15 +3012,14 @@
           <t>3827</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2642,27 +3029,14 @@
           <t>3828</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.88%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2672,15 +3046,14 @@
           <t>3865</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2690,15 +3063,14 @@
           <t>3866</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2710,13 +3082,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2724,27 +3089,14 @@
           <t>3888</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2756,13 +3108,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2770,15 +3115,14 @@
           <t>4100</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2788,29 +3132,12 @@
           <t>4101</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.54%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2818,27 +3145,14 @@
           <t>4239</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.46%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2850,13 +3164,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2864,29 +3171,12 @@
           <t>4245</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.17%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2894,27 +3184,14 @@
           <t>4566</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15.53%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2926,13 +3203,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2499,6 +2498,10 @@
           <t>3342</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2541,6 +2544,10 @@
           <t>3370</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2553,6 +2560,10 @@
           <t>3385</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2598,6 +2609,9 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2613,6 +2627,9 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2658,6 +2675,9 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2673,6 +2693,9 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2685,6 +2708,10 @@
           <t>3868</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2727,6 +2754,10 @@
           <t>3951</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2742,6 +2773,9 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2814,6 +2848,10 @@
           <t>4242</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2886,323 +2924,15 @@
           <t>4568</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3342</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3366</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3370</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3385</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3429</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3503</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3827</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3828</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3865</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3866</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3868</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3888</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3951</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4100</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4101</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4239</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4242</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4245</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>22/10/2011</t>
@@ -859,6 +860,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/06/2013</t>
@@ -906,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>23/08/2015</t>
@@ -1005,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -1255,6 +1260,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -2444,497 +2450,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3342</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3366</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.23%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3370</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3385</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3429</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.08%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3503</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3827</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3828</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.88%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3865</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3866</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3868</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3888</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3951</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4100</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4101</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.54%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4239</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.46%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4242</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4245</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.17%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15.53%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3911.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -604,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>22/10/2011</t>
@@ -860,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/06/2013</t>
@@ -908,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>23/08/2015</t>
@@ -1008,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -1056,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -1260,7 +1255,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -2450,4 +2444,515 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3340</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3370</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3385</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3503</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3827</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3828</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.46%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.17%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15.53%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>